--- a/biology/Botanique/Tynanthus_panurensis/Tynanthus_panurensis.xlsx
+++ b/biology/Botanique/Tynanthus_panurensis/Tynanthus_panurensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tynanthus panurensis
 Tynanthus panurensis ou plus communément appelé Clavo huasca est une plante du genre Tynanthus et de la famille des Lamiaceae originaire d’Amérique du Sud. Elle contient un alcaloïde appelé phytonutients (Tinantina) ainsi que des acides tanniques, de l'eugénol et d'autres huiles essentielles.
-La plante est connue par les tribus indigènes Shipibo-Conibo, Kayapó et Assurini de la forêt amazonienne comme faisant partie des plantes médicinales. Elle est utilisée comme analgésique, aphrodisiaque, stimulant, stomachique et digestif[1],[2]. Les parties utilisées: sont le bois de la vigne et de l'écorce.
+La plante est connue par les tribus indigènes Shipibo-Conibo, Kayapó et Assurini de la forêt amazonienne comme faisant partie des plantes médicinales. Elle est utilisée comme analgésique, aphrodisiaque, stimulant, stomachique et digestif,. Les parties utilisées: sont le bois de la vigne et de l'écorce.
 </t>
         </is>
       </c>
